--- a/QualifiedLists.xlsx
+++ b/QualifiedLists.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PowerSystemProtection\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28740" windowHeight="12150"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -315,13 +315,28 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -329,21 +344,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -689,7 +689,7 @@
   <dimension ref="A2:R20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="P25" sqref="P25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -703,167 +703,167 @@
   <sheetData>
     <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
     </row>
     <row r="3" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="11"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
     </row>
     <row r="4" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="13" t="s">
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="13"/>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="13"/>
-      <c r="R4" s="13"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
     </row>
     <row r="5" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="13" t="s">
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="13"/>
-      <c r="R5" s="13"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
     </row>
     <row r="6" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="10" t="s">
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="10"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
     </row>
     <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="10" t="s">
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="10"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
     </row>
     <row r="8" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="14" t="s">
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="14"/>
-      <c r="R8" s="14"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="9"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
@@ -872,31 +872,31 @@
       <c r="B9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="8" t="s">
+      <c r="D9" s="14"/>
+      <c r="E9" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="9"/>
-      <c r="G9" s="5" t="s">
+      <c r="F9" s="14"/>
+      <c r="G9" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5" t="s">
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="K9" s="5"/>
+      <c r="K9" s="12"/>
       <c r="L9" s="4"/>
       <c r="M9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="N9" s="5" t="s">
+      <c r="N9" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="O9" s="5"/>
+      <c r="O9" s="12"/>
       <c r="P9" s="4" t="s">
         <v>19</v>
       </c>
@@ -914,54 +914,54 @@
       <c r="B10" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="6">
-        <v>3</v>
-      </c>
-      <c r="D10" s="6">
-        <v>3</v>
-      </c>
-      <c r="E10" s="6">
-        <v>3</v>
-      </c>
-      <c r="F10" s="6">
-        <v>3</v>
-      </c>
-      <c r="G10" s="6">
-        <v>3</v>
-      </c>
-      <c r="H10" s="6">
-        <v>3</v>
-      </c>
-      <c r="I10" s="6">
-        <v>0</v>
-      </c>
-      <c r="J10" s="6">
-        <v>3</v>
-      </c>
-      <c r="K10" s="6">
-        <v>0</v>
-      </c>
-      <c r="L10" s="6">
-        <v>3</v>
-      </c>
-      <c r="M10" s="6">
-        <v>3</v>
-      </c>
-      <c r="N10" s="6">
-        <v>3</v>
-      </c>
-      <c r="O10" s="6">
-        <v>3</v>
-      </c>
-      <c r="P10" s="6">
+      <c r="C10" s="5">
+        <v>3</v>
+      </c>
+      <c r="D10" s="5">
+        <v>3</v>
+      </c>
+      <c r="E10" s="5">
+        <v>3</v>
+      </c>
+      <c r="F10" s="5">
+        <v>3</v>
+      </c>
+      <c r="G10" s="5">
+        <v>3</v>
+      </c>
+      <c r="H10" s="5">
+        <v>3</v>
+      </c>
+      <c r="I10" s="5">
+        <v>0</v>
+      </c>
+      <c r="J10" s="5">
+        <v>3</v>
+      </c>
+      <c r="K10" s="5">
+        <v>0</v>
+      </c>
+      <c r="L10" s="5">
+        <v>3</v>
+      </c>
+      <c r="M10" s="5">
+        <v>3</v>
+      </c>
+      <c r="N10" s="5">
+        <v>3</v>
+      </c>
+      <c r="O10" s="5">
+        <v>3</v>
+      </c>
+      <c r="P10" s="5">
         <f>SUM(C10:O10)</f>
         <v>33</v>
       </c>
-      <c r="Q10" s="7">
+      <c r="Q10" s="6">
         <f>(P10/39)*100</f>
         <v>84.615384615384613</v>
       </c>
-      <c r="R10" s="6" t="s">
+      <c r="R10" s="5" t="s">
         <v>22</v>
       </c>
     </row>
@@ -972,54 +972,54 @@
       <c r="B11" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="6">
-        <v>3</v>
-      </c>
-      <c r="D11" s="6">
-        <v>3</v>
-      </c>
-      <c r="E11" s="6">
-        <v>3</v>
-      </c>
-      <c r="F11" s="6">
-        <v>3</v>
-      </c>
-      <c r="G11" s="6">
-        <v>3</v>
-      </c>
-      <c r="H11" s="6">
-        <v>3</v>
-      </c>
-      <c r="I11" s="6">
-        <v>0</v>
-      </c>
-      <c r="J11" s="6">
-        <v>3</v>
-      </c>
-      <c r="K11" s="6">
-        <v>3</v>
-      </c>
-      <c r="L11" s="6">
-        <v>0</v>
-      </c>
-      <c r="M11" s="6">
-        <v>3</v>
-      </c>
-      <c r="N11" s="6">
-        <v>0</v>
-      </c>
-      <c r="O11" s="6">
-        <v>0</v>
-      </c>
-      <c r="P11" s="6">
+      <c r="C11" s="5">
+        <v>3</v>
+      </c>
+      <c r="D11" s="5">
+        <v>3</v>
+      </c>
+      <c r="E11" s="5">
+        <v>3</v>
+      </c>
+      <c r="F11" s="5">
+        <v>3</v>
+      </c>
+      <c r="G11" s="5">
+        <v>3</v>
+      </c>
+      <c r="H11" s="5">
+        <v>3</v>
+      </c>
+      <c r="I11" s="5">
+        <v>0</v>
+      </c>
+      <c r="J11" s="5">
+        <v>3</v>
+      </c>
+      <c r="K11" s="5">
+        <v>3</v>
+      </c>
+      <c r="L11" s="5">
+        <v>0</v>
+      </c>
+      <c r="M11" s="5">
+        <v>3</v>
+      </c>
+      <c r="N11" s="5">
+        <v>0</v>
+      </c>
+      <c r="O11" s="5">
+        <v>0</v>
+      </c>
+      <c r="P11" s="5">
         <f t="shared" ref="P11:P20" si="0">SUM(C11:O11)</f>
         <v>27</v>
       </c>
-      <c r="Q11" s="7">
+      <c r="Q11" s="6">
         <f t="shared" ref="Q11:Q20" si="1">(P11/39)*100</f>
         <v>69.230769230769226</v>
       </c>
-      <c r="R11" s="6" t="s">
+      <c r="R11" s="5" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1030,54 +1030,54 @@
       <c r="B12" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="6">
-        <v>0</v>
-      </c>
-      <c r="D12" s="6">
-        <v>3</v>
-      </c>
-      <c r="E12" s="6">
-        <v>3</v>
-      </c>
-      <c r="F12" s="6">
-        <v>3</v>
-      </c>
-      <c r="G12" s="6">
-        <v>3</v>
-      </c>
-      <c r="H12" s="6">
-        <v>3</v>
-      </c>
-      <c r="I12" s="6">
-        <v>0</v>
-      </c>
-      <c r="J12" s="6">
-        <v>3</v>
-      </c>
-      <c r="K12" s="6">
-        <v>3</v>
-      </c>
-      <c r="L12" s="6">
-        <v>3</v>
-      </c>
-      <c r="M12" s="6">
-        <v>0</v>
-      </c>
-      <c r="N12" s="6">
-        <v>0</v>
-      </c>
-      <c r="O12" s="6">
-        <v>0</v>
-      </c>
-      <c r="P12" s="6">
+      <c r="C12" s="5">
+        <v>0</v>
+      </c>
+      <c r="D12" s="5">
+        <v>3</v>
+      </c>
+      <c r="E12" s="5">
+        <v>3</v>
+      </c>
+      <c r="F12" s="5">
+        <v>3</v>
+      </c>
+      <c r="G12" s="5">
+        <v>3</v>
+      </c>
+      <c r="H12" s="5">
+        <v>3</v>
+      </c>
+      <c r="I12" s="5">
+        <v>0</v>
+      </c>
+      <c r="J12" s="5">
+        <v>3</v>
+      </c>
+      <c r="K12" s="5">
+        <v>3</v>
+      </c>
+      <c r="L12" s="5">
+        <v>3</v>
+      </c>
+      <c r="M12" s="5">
+        <v>0</v>
+      </c>
+      <c r="N12" s="5">
+        <v>0</v>
+      </c>
+      <c r="O12" s="5">
+        <v>0</v>
+      </c>
+      <c r="P12" s="5">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="Q12" s="7">
+      <c r="Q12" s="6">
         <f t="shared" si="1"/>
         <v>61.53846153846154</v>
       </c>
-      <c r="R12" s="6" t="s">
+      <c r="R12" s="5" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1088,54 +1088,54 @@
       <c r="B13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="6">
-        <v>3</v>
-      </c>
-      <c r="D13" s="6">
-        <v>3</v>
-      </c>
-      <c r="E13" s="6">
-        <v>3</v>
-      </c>
-      <c r="F13" s="6">
-        <v>0</v>
-      </c>
-      <c r="G13" s="6">
-        <v>3</v>
-      </c>
-      <c r="H13" s="6">
-        <v>3</v>
-      </c>
-      <c r="I13" s="6">
-        <v>0</v>
-      </c>
-      <c r="J13" s="6">
-        <v>3</v>
-      </c>
-      <c r="K13" s="6">
-        <v>0</v>
-      </c>
-      <c r="L13" s="6">
-        <v>3</v>
-      </c>
-      <c r="M13" s="6">
-        <v>3</v>
-      </c>
-      <c r="N13" s="6">
-        <v>3</v>
-      </c>
-      <c r="O13" s="6">
-        <v>3</v>
-      </c>
-      <c r="P13" s="6">
+      <c r="C13" s="5">
+        <v>3</v>
+      </c>
+      <c r="D13" s="5">
+        <v>3</v>
+      </c>
+      <c r="E13" s="5">
+        <v>3</v>
+      </c>
+      <c r="F13" s="5">
+        <v>0</v>
+      </c>
+      <c r="G13" s="5">
+        <v>3</v>
+      </c>
+      <c r="H13" s="5">
+        <v>3</v>
+      </c>
+      <c r="I13" s="5">
+        <v>0</v>
+      </c>
+      <c r="J13" s="5">
+        <v>3</v>
+      </c>
+      <c r="K13" s="5">
+        <v>0</v>
+      </c>
+      <c r="L13" s="5">
+        <v>3</v>
+      </c>
+      <c r="M13" s="5">
+        <v>3</v>
+      </c>
+      <c r="N13" s="5">
+        <v>3</v>
+      </c>
+      <c r="O13" s="5">
+        <v>3</v>
+      </c>
+      <c r="P13" s="5">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="Q13" s="7">
+      <c r="Q13" s="6">
         <f t="shared" si="1"/>
         <v>76.923076923076934</v>
       </c>
-      <c r="R13" s="6" t="s">
+      <c r="R13" s="5" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1146,54 +1146,54 @@
       <c r="B14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="6">
-        <v>3</v>
-      </c>
-      <c r="D14" s="6">
-        <v>3</v>
-      </c>
-      <c r="E14" s="6">
-        <v>3</v>
-      </c>
-      <c r="F14" s="6">
-        <v>3</v>
-      </c>
-      <c r="G14" s="6">
-        <v>3</v>
-      </c>
-      <c r="H14" s="6">
-        <v>3</v>
-      </c>
-      <c r="I14" s="6">
-        <v>0</v>
-      </c>
-      <c r="J14" s="6">
-        <v>3</v>
-      </c>
-      <c r="K14" s="6">
-        <v>0</v>
-      </c>
-      <c r="L14" s="6">
-        <v>3</v>
-      </c>
-      <c r="M14" s="6">
-        <v>3</v>
-      </c>
-      <c r="N14" s="6">
-        <v>0</v>
-      </c>
-      <c r="O14" s="6">
-        <v>0</v>
-      </c>
-      <c r="P14" s="6">
+      <c r="C14" s="5">
+        <v>3</v>
+      </c>
+      <c r="D14" s="5">
+        <v>3</v>
+      </c>
+      <c r="E14" s="5">
+        <v>3</v>
+      </c>
+      <c r="F14" s="5">
+        <v>3</v>
+      </c>
+      <c r="G14" s="5">
+        <v>3</v>
+      </c>
+      <c r="H14" s="5">
+        <v>3</v>
+      </c>
+      <c r="I14" s="5">
+        <v>0</v>
+      </c>
+      <c r="J14" s="5">
+        <v>3</v>
+      </c>
+      <c r="K14" s="5">
+        <v>0</v>
+      </c>
+      <c r="L14" s="5">
+        <v>3</v>
+      </c>
+      <c r="M14" s="5">
+        <v>3</v>
+      </c>
+      <c r="N14" s="5">
+        <v>0</v>
+      </c>
+      <c r="O14" s="5">
+        <v>0</v>
+      </c>
+      <c r="P14" s="5">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="Q14" s="7">
+      <c r="Q14" s="6">
         <f t="shared" si="1"/>
         <v>69.230769230769226</v>
       </c>
-      <c r="R14" s="6" t="s">
+      <c r="R14" s="5" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1204,54 +1204,54 @@
       <c r="B15" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="6">
-        <v>3</v>
-      </c>
-      <c r="D15" s="6">
-        <v>3</v>
-      </c>
-      <c r="E15" s="6">
-        <v>3</v>
-      </c>
-      <c r="F15" s="6">
-        <v>3</v>
-      </c>
-      <c r="G15" s="6">
-        <v>0</v>
-      </c>
-      <c r="H15" s="6">
-        <v>3</v>
-      </c>
-      <c r="I15" s="6">
-        <v>3</v>
-      </c>
-      <c r="J15" s="6">
-        <v>3</v>
-      </c>
-      <c r="K15" s="6">
-        <v>3</v>
-      </c>
-      <c r="L15" s="6">
-        <v>3</v>
-      </c>
-      <c r="M15" s="6">
-        <v>3</v>
-      </c>
-      <c r="N15" s="6">
-        <v>3</v>
-      </c>
-      <c r="O15" s="6">
-        <v>3</v>
-      </c>
-      <c r="P15" s="6">
+      <c r="C15" s="5">
+        <v>3</v>
+      </c>
+      <c r="D15" s="5">
+        <v>3</v>
+      </c>
+      <c r="E15" s="5">
+        <v>3</v>
+      </c>
+      <c r="F15" s="5">
+        <v>3</v>
+      </c>
+      <c r="G15" s="5">
+        <v>0</v>
+      </c>
+      <c r="H15" s="5">
+        <v>3</v>
+      </c>
+      <c r="I15" s="5">
+        <v>3</v>
+      </c>
+      <c r="J15" s="5">
+        <v>3</v>
+      </c>
+      <c r="K15" s="5">
+        <v>3</v>
+      </c>
+      <c r="L15" s="5">
+        <v>3</v>
+      </c>
+      <c r="M15" s="5">
+        <v>3</v>
+      </c>
+      <c r="N15" s="5">
+        <v>3</v>
+      </c>
+      <c r="O15" s="5">
+        <v>3</v>
+      </c>
+      <c r="P15" s="5">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="Q15" s="7">
+      <c r="Q15" s="6">
         <f t="shared" si="1"/>
         <v>92.307692307692307</v>
       </c>
-      <c r="R15" s="6" t="s">
+      <c r="R15" s="5" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1262,54 +1262,54 @@
       <c r="B16" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="6">
-        <v>3</v>
-      </c>
-      <c r="D16" s="6">
-        <v>3</v>
-      </c>
-      <c r="E16" s="6">
-        <v>3</v>
-      </c>
-      <c r="F16" s="6">
-        <v>3</v>
-      </c>
-      <c r="G16" s="6">
-        <v>3</v>
-      </c>
-      <c r="H16" s="6">
-        <v>3</v>
-      </c>
-      <c r="I16" s="6">
-        <v>3</v>
-      </c>
-      <c r="J16" s="6">
-        <v>3</v>
-      </c>
-      <c r="K16" s="6">
-        <v>3</v>
-      </c>
-      <c r="L16" s="6">
-        <v>3</v>
-      </c>
-      <c r="M16" s="6">
-        <v>3</v>
-      </c>
-      <c r="N16" s="6">
-        <v>3</v>
-      </c>
-      <c r="O16" s="6">
-        <v>3</v>
-      </c>
-      <c r="P16" s="6">
+      <c r="C16" s="5">
+        <v>3</v>
+      </c>
+      <c r="D16" s="5">
+        <v>3</v>
+      </c>
+      <c r="E16" s="5">
+        <v>3</v>
+      </c>
+      <c r="F16" s="5">
+        <v>3</v>
+      </c>
+      <c r="G16" s="5">
+        <v>3</v>
+      </c>
+      <c r="H16" s="5">
+        <v>3</v>
+      </c>
+      <c r="I16" s="5">
+        <v>3</v>
+      </c>
+      <c r="J16" s="5">
+        <v>3</v>
+      </c>
+      <c r="K16" s="5">
+        <v>3</v>
+      </c>
+      <c r="L16" s="5">
+        <v>3</v>
+      </c>
+      <c r="M16" s="5">
+        <v>3</v>
+      </c>
+      <c r="N16" s="5">
+        <v>3</v>
+      </c>
+      <c r="O16" s="5">
+        <v>3</v>
+      </c>
+      <c r="P16" s="5">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="Q16" s="7">
+      <c r="Q16" s="6">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="R16" s="6" t="s">
+      <c r="R16" s="5" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1320,54 +1320,54 @@
       <c r="B17" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="6">
-        <v>0</v>
-      </c>
-      <c r="D17" s="6">
-        <v>0</v>
-      </c>
-      <c r="E17" s="6">
-        <v>3</v>
-      </c>
-      <c r="F17" s="6">
-        <v>3</v>
-      </c>
-      <c r="G17" s="6">
-        <v>3</v>
-      </c>
-      <c r="H17" s="6">
-        <v>3</v>
-      </c>
-      <c r="I17" s="6">
-        <v>0</v>
-      </c>
-      <c r="J17" s="6">
-        <v>3</v>
-      </c>
-      <c r="K17" s="6">
-        <v>0</v>
-      </c>
-      <c r="L17" s="6">
-        <v>3</v>
-      </c>
-      <c r="M17" s="6">
-        <v>3</v>
-      </c>
-      <c r="N17" s="6">
-        <v>3</v>
-      </c>
-      <c r="O17" s="6">
-        <v>0</v>
-      </c>
-      <c r="P17" s="6">
+      <c r="C17" s="5">
+        <v>0</v>
+      </c>
+      <c r="D17" s="5">
+        <v>0</v>
+      </c>
+      <c r="E17" s="5">
+        <v>3</v>
+      </c>
+      <c r="F17" s="5">
+        <v>3</v>
+      </c>
+      <c r="G17" s="5">
+        <v>3</v>
+      </c>
+      <c r="H17" s="5">
+        <v>3</v>
+      </c>
+      <c r="I17" s="5">
+        <v>0</v>
+      </c>
+      <c r="J17" s="5">
+        <v>3</v>
+      </c>
+      <c r="K17" s="5">
+        <v>0</v>
+      </c>
+      <c r="L17" s="5">
+        <v>3</v>
+      </c>
+      <c r="M17" s="5">
+        <v>3</v>
+      </c>
+      <c r="N17" s="5">
+        <v>3</v>
+      </c>
+      <c r="O17" s="5">
+        <v>0</v>
+      </c>
+      <c r="P17" s="5">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="Q17" s="7">
+      <c r="Q17" s="6">
         <f t="shared" si="1"/>
         <v>61.53846153846154</v>
       </c>
-      <c r="R17" s="6" t="s">
+      <c r="R17" s="5" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1378,54 +1378,54 @@
       <c r="B18" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="6">
-        <v>0</v>
-      </c>
-      <c r="D18" s="6">
-        <v>0</v>
-      </c>
-      <c r="E18" s="6">
-        <v>3</v>
-      </c>
-      <c r="F18" s="6">
-        <v>3</v>
-      </c>
-      <c r="G18" s="6">
-        <v>3</v>
-      </c>
-      <c r="H18" s="6">
-        <v>3</v>
-      </c>
-      <c r="I18" s="6">
-        <v>3</v>
-      </c>
-      <c r="J18" s="6">
-        <v>3</v>
-      </c>
-      <c r="K18" s="6">
-        <v>0</v>
-      </c>
-      <c r="L18" s="6">
-        <v>0</v>
-      </c>
-      <c r="M18" s="6">
-        <v>3</v>
-      </c>
-      <c r="N18" s="6">
-        <v>3</v>
-      </c>
-      <c r="O18" s="6">
-        <v>3</v>
-      </c>
-      <c r="P18" s="6">
+      <c r="C18" s="5">
+        <v>0</v>
+      </c>
+      <c r="D18" s="5">
+        <v>0</v>
+      </c>
+      <c r="E18" s="5">
+        <v>3</v>
+      </c>
+      <c r="F18" s="5">
+        <v>3</v>
+      </c>
+      <c r="G18" s="5">
+        <v>3</v>
+      </c>
+      <c r="H18" s="5">
+        <v>3</v>
+      </c>
+      <c r="I18" s="5">
+        <v>3</v>
+      </c>
+      <c r="J18" s="5">
+        <v>3</v>
+      </c>
+      <c r="K18" s="5">
+        <v>0</v>
+      </c>
+      <c r="L18" s="5">
+        <v>0</v>
+      </c>
+      <c r="M18" s="5">
+        <v>3</v>
+      </c>
+      <c r="N18" s="5">
+        <v>3</v>
+      </c>
+      <c r="O18" s="5">
+        <v>3</v>
+      </c>
+      <c r="P18" s="5">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="Q18" s="7">
+      <c r="Q18" s="6">
         <f t="shared" si="1"/>
         <v>69.230769230769226</v>
       </c>
-      <c r="R18" s="6" t="s">
+      <c r="R18" s="5" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1436,54 +1436,54 @@
       <c r="B19" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="6">
-        <v>0</v>
-      </c>
-      <c r="D19" s="6">
-        <v>0</v>
-      </c>
-      <c r="E19" s="6">
-        <v>3</v>
-      </c>
-      <c r="F19" s="6">
-        <v>3</v>
-      </c>
-      <c r="G19" s="6">
-        <v>0</v>
-      </c>
-      <c r="H19" s="6">
-        <v>0</v>
-      </c>
-      <c r="I19" s="6">
-        <v>0</v>
-      </c>
-      <c r="J19" s="6">
-        <v>0</v>
-      </c>
-      <c r="K19" s="6">
-        <v>0</v>
-      </c>
-      <c r="L19" s="6">
-        <v>0</v>
-      </c>
-      <c r="M19" s="6">
-        <v>0</v>
-      </c>
-      <c r="N19" s="6">
-        <v>0</v>
-      </c>
-      <c r="O19" s="6">
-        <v>0</v>
-      </c>
-      <c r="P19" s="6">
+      <c r="C19" s="5">
+        <v>0</v>
+      </c>
+      <c r="D19" s="5">
+        <v>0</v>
+      </c>
+      <c r="E19" s="5">
+        <v>3</v>
+      </c>
+      <c r="F19" s="5">
+        <v>3</v>
+      </c>
+      <c r="G19" s="5">
+        <v>0</v>
+      </c>
+      <c r="H19" s="5">
+        <v>0</v>
+      </c>
+      <c r="I19" s="5">
+        <v>0</v>
+      </c>
+      <c r="J19" s="5">
+        <v>0</v>
+      </c>
+      <c r="K19" s="5">
+        <v>0</v>
+      </c>
+      <c r="L19" s="5">
+        <v>0</v>
+      </c>
+      <c r="M19" s="5">
+        <v>0</v>
+      </c>
+      <c r="N19" s="5">
+        <v>0</v>
+      </c>
+      <c r="O19" s="5">
+        <v>0</v>
+      </c>
+      <c r="P19" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="Q19" s="7">
+      <c r="Q19" s="6">
         <f t="shared" si="1"/>
         <v>15.384615384615385</v>
       </c>
-      <c r="R19" s="6" t="s">
+      <c r="R19" s="5" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1494,76 +1494,76 @@
       <c r="B20" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="6">
-        <v>0</v>
-      </c>
-      <c r="D20" s="6">
-        <v>3</v>
-      </c>
-      <c r="E20" s="6">
-        <v>0</v>
-      </c>
-      <c r="F20" s="6">
-        <v>0</v>
-      </c>
-      <c r="G20" s="6">
-        <v>0</v>
-      </c>
-      <c r="H20" s="6">
-        <v>0</v>
-      </c>
-      <c r="I20" s="6">
-        <v>0</v>
-      </c>
-      <c r="J20" s="6">
-        <v>3</v>
-      </c>
-      <c r="K20" s="6">
-        <v>0</v>
-      </c>
-      <c r="L20" s="6">
-        <v>3</v>
-      </c>
-      <c r="M20" s="6">
-        <v>3</v>
-      </c>
-      <c r="N20" s="6">
-        <v>3</v>
-      </c>
-      <c r="O20" s="6">
-        <v>3</v>
-      </c>
-      <c r="P20" s="6">
+      <c r="C20" s="5">
+        <v>0</v>
+      </c>
+      <c r="D20" s="5">
+        <v>3</v>
+      </c>
+      <c r="E20" s="5">
+        <v>3</v>
+      </c>
+      <c r="F20" s="5">
+        <v>0</v>
+      </c>
+      <c r="G20" s="5">
+        <v>3</v>
+      </c>
+      <c r="H20" s="5">
+        <v>0</v>
+      </c>
+      <c r="I20" s="5">
+        <v>3</v>
+      </c>
+      <c r="J20" s="5">
+        <v>3</v>
+      </c>
+      <c r="K20" s="5">
+        <v>3</v>
+      </c>
+      <c r="L20" s="5">
+        <v>3</v>
+      </c>
+      <c r="M20" s="5">
+        <v>3</v>
+      </c>
+      <c r="N20" s="5">
+        <v>3</v>
+      </c>
+      <c r="O20" s="5">
+        <v>3</v>
+      </c>
+      <c r="P20" s="5">
         <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="Q20" s="7">
+        <v>30</v>
+      </c>
+      <c r="Q20" s="6">
         <f t="shared" si="1"/>
-        <v>46.153846153846153</v>
-      </c>
-      <c r="R20" s="6" t="s">
+        <v>76.923076923076934</v>
+      </c>
+      <c r="R20" s="5" t="s">
         <v>23</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D7:R7"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D8:R8"/>
-    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:K9"/>
     <mergeCell ref="A3:R3"/>
     <mergeCell ref="B2:R2"/>
     <mergeCell ref="D4:R4"/>
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="D5:R5"/>
     <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D7:R7"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D8:R8"/>
+    <mergeCell ref="A8:C8"/>
     <mergeCell ref="D6:R6"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:K9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
